--- a/biology/Botanique/Eulophiinae/Eulophiinae.xlsx
+++ b/biology/Botanique/Eulophiinae/Eulophiinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Eulophiinae sont une sous-tribu d'orchidées terrestres et épiphytes, de la tribu des Cymbidieae. Le taxon comprend environ 270 espèces réparties en 9 genres. Le genre type est Eulophia, qui comprend à lui seul environ 60% des espèces[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Eulophiinae sont une sous-tribu d'orchidées terrestres et épiphytes, de la tribu des Cymbidieae. Le taxon comprend environ 270 espèces réparties en 9 genres. Le genre type est Eulophia, qui comprend à lui seul environ 60% des espèces.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Orchidées terrestres et épiphytes. 
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrique, Asie et Australasie, avec quelques taxons néotropicaux.
 </t>
@@ -573,7 +589,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Acrolophia
 Cyanaeorchis
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>George Bentham, Journal of the Linnean Society, Botany (J. Linn. Soc., Bot.), 18(110): 287. (1881).</t>
         </is>
